--- a/科研经费到账金额.xlsx
+++ b/科研经费到账金额.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="纵览数据" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="232">
   <si>
     <t>所在单位</t>
   </si>
@@ -727,18 +727,6 @@
   </si>
   <si>
     <t>材料学院</t>
-  </si>
-  <si>
-    <t>项目绩效（元）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>本卡经费（元）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理费（元）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>到位经费（元）</t>
@@ -854,20 +842,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -890,6 +866,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1164,7 +1152,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1172,648 +1160,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="53.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="D1" s="15" t="s">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="9">
         <v>200000</v>
       </c>
-      <c r="C2" s="13">
-        <v>6000</v>
-      </c>
-      <c r="D2" s="13">
-        <v>164000</v>
-      </c>
-      <c r="E2" s="13">
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2901570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="9">
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" s="13">
-        <v>2901570</v>
-      </c>
-      <c r="C3" s="13">
-        <v>87047.099999999991</v>
-      </c>
-      <c r="D3" s="13">
-        <v>2694522.9</v>
-      </c>
-      <c r="E3" s="13">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4" s="13">
-        <v>30000</v>
-      </c>
-      <c r="C4" s="13">
-        <v>900</v>
-      </c>
-      <c r="D4" s="13">
-        <v>29100</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="9">
         <v>6400384</v>
       </c>
-      <c r="C5" s="13">
-        <v>192011.51999999999</v>
-      </c>
-      <c r="D5" s="13">
-        <v>6205372.4800000004</v>
-      </c>
-      <c r="E5" s="13">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="9">
         <v>50000</v>
       </c>
-      <c r="C6" s="13">
-        <v>1500</v>
-      </c>
-      <c r="D6" s="13">
-        <v>48500</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="9">
         <v>495000</v>
       </c>
-      <c r="C7" s="13">
-        <v>14850</v>
-      </c>
-      <c r="D7" s="13">
-        <v>480150</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="9">
         <v>300000</v>
       </c>
-      <c r="C8" s="13">
+    </row>
+    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="9">
+        <v>5173550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="9">
+        <v>423700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="9">
+        <v>211200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="9">
+        <v>4179022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="9">
+        <v>146000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="9">
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="9">
+        <v>881500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="9">
+        <v>3518743.4299999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="9">
+        <v>596000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="9">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="9">
+        <v>6717340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="9">
+        <v>358000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9">
         <v>9000</v>
       </c>
-      <c r="D8" s="13">
-        <v>291000</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" s="13">
-        <v>5173550</v>
-      </c>
-      <c r="C9" s="13">
-        <v>153706.5</v>
-      </c>
-      <c r="D9" s="13">
-        <v>5019843.5</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="13">
-        <v>423700</v>
-      </c>
-      <c r="C10" s="13">
-        <v>12711</v>
-      </c>
-      <c r="D10" s="13">
-        <v>410989</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="13">
-        <v>211200</v>
-      </c>
-      <c r="C11" s="13">
-        <v>6336</v>
-      </c>
-      <c r="D11" s="13">
-        <v>177064</v>
-      </c>
-      <c r="E11" s="13">
-        <v>27800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="B12" s="13">
-        <v>4179022</v>
-      </c>
-      <c r="C12" s="13">
-        <v>125570.66</v>
-      </c>
-      <c r="D12" s="13">
-        <v>4045451.34</v>
-      </c>
-      <c r="E12" s="13">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B13" s="13">
-        <v>146000</v>
-      </c>
-      <c r="C13" s="13">
-        <v>4380</v>
-      </c>
-      <c r="D13" s="13">
-        <v>141620</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="13">
-        <v>440000</v>
-      </c>
-      <c r="C14" s="13">
-        <v>13200</v>
-      </c>
-      <c r="D14" s="13">
-        <v>421800</v>
-      </c>
-      <c r="E14" s="13">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="B15" s="13">
-        <v>881500</v>
-      </c>
-      <c r="C15" s="13">
-        <v>26445</v>
-      </c>
-      <c r="D15" s="13">
-        <v>855055</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="B16" s="13">
-        <v>3518743.4299999997</v>
-      </c>
-      <c r="C16" s="13">
-        <v>105562.4813</v>
-      </c>
-      <c r="D16" s="13">
-        <v>3401180.9486999996</v>
-      </c>
-      <c r="E16" s="13">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="13">
-        <v>596000</v>
-      </c>
-      <c r="C17" s="13">
-        <v>17880</v>
-      </c>
-      <c r="D17" s="13">
-        <v>525320</v>
-      </c>
-      <c r="E17" s="13">
-        <v>52800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="B18" s="13">
-        <v>50000</v>
-      </c>
-      <c r="C18" s="13">
-        <v>1500</v>
-      </c>
-      <c r="D18" s="13">
-        <v>48500</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" s="13">
-        <v>6717340</v>
-      </c>
-      <c r="C19" s="13">
-        <v>244020.2</v>
-      </c>
-      <c r="D19" s="13">
-        <v>6313319.7999999998</v>
-      </c>
-      <c r="E19" s="13">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="13">
-        <v>358000</v>
-      </c>
-      <c r="C20" s="13">
-        <v>12440</v>
-      </c>
-      <c r="D20" s="13">
-        <v>342560</v>
-      </c>
-      <c r="E20" s="13">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="13">
-        <v>9000</v>
-      </c>
-      <c r="C21" s="13">
-        <v>270</v>
-      </c>
-      <c r="D21" s="13">
-        <v>8730</v>
-      </c>
-      <c r="E21" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="9">
         <v>25000</v>
       </c>
-      <c r="C22" s="13">
-        <v>750</v>
-      </c>
-      <c r="D22" s="13">
-        <v>24250</v>
-      </c>
-      <c r="E22" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="9">
         <v>40000</v>
       </c>
-      <c r="C23" s="13">
-        <v>1200</v>
-      </c>
-      <c r="D23" s="13">
-        <v>38800</v>
-      </c>
-      <c r="E23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="9">
         <v>1770000</v>
       </c>
-      <c r="C24" s="13">
-        <v>53100</v>
-      </c>
-      <c r="D24" s="13">
-        <v>1635900</v>
-      </c>
-      <c r="E24" s="13">
-        <v>81000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="9">
         <v>355000</v>
       </c>
-      <c r="C25" s="13">
-        <v>48050</v>
-      </c>
-      <c r="D25" s="13">
-        <v>286950</v>
-      </c>
-      <c r="E25" s="13">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="9">
         <v>595000</v>
       </c>
-      <c r="C26" s="13">
-        <v>17850</v>
-      </c>
-      <c r="D26" s="13">
-        <v>577150</v>
-      </c>
-      <c r="E26" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="9">
         <v>200000</v>
       </c>
-      <c r="C27" s="13">
-        <v>6000</v>
-      </c>
-      <c r="D27" s="13">
-        <v>154000</v>
-      </c>
-      <c r="E27" s="13">
+    </row>
+    <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="9">
+        <v>19262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="9">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" s="9">
+        <v>110304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="9">
+        <v>605000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="9">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="9">
+        <v>9340300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35" s="9">
         <v>40000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B28" s="13">
-        <v>19262</v>
-      </c>
-      <c r="C28" s="13">
-        <v>577.86</v>
-      </c>
-      <c r="D28" s="13">
-        <v>17684.14</v>
-      </c>
-      <c r="E28" s="13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="B29" s="13">
-        <v>10000</v>
-      </c>
-      <c r="C29" s="13">
-        <v>300</v>
-      </c>
-      <c r="D29" s="13">
-        <v>9700</v>
-      </c>
-      <c r="E29" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B30" s="13">
-        <v>225000</v>
-      </c>
-      <c r="C30" s="13">
-        <v>6750</v>
-      </c>
-      <c r="D30" s="13">
-        <v>218250</v>
-      </c>
-      <c r="E30" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="B31" s="13">
-        <v>110304</v>
-      </c>
-      <c r="C31" s="13">
-        <v>3309.12</v>
-      </c>
-      <c r="D31" s="13">
-        <v>106994.88</v>
-      </c>
-      <c r="E31" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B32" s="13">
-        <v>605000</v>
-      </c>
-      <c r="C32" s="13">
-        <v>26650</v>
-      </c>
-      <c r="D32" s="13">
-        <v>538350</v>
-      </c>
-      <c r="E32" s="13">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="13">
-        <v>140000</v>
-      </c>
-      <c r="C33" s="13">
-        <v>21200</v>
-      </c>
-      <c r="D33" s="13">
-        <v>118800</v>
-      </c>
-      <c r="E33" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B34" s="13">
-        <v>9340300</v>
-      </c>
-      <c r="C34" s="13">
-        <v>280209</v>
-      </c>
-      <c r="D34" s="13">
-        <v>8158501</v>
-      </c>
-      <c r="E34" s="13">
-        <v>901590</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B35" s="13">
-        <v>40000</v>
-      </c>
-      <c r="C35" s="13">
-        <v>1200</v>
-      </c>
-      <c r="D35" s="13">
-        <v>38800</v>
-      </c>
-      <c r="E35" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
+    <row r="36" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="9">
         <v>694400</v>
       </c>
-      <c r="C36" s="13">
-        <v>20832</v>
-      </c>
-      <c r="D36" s="13">
-        <v>595933</v>
-      </c>
-      <c r="E36" s="13">
-        <v>77635</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="7">
         <v>47250275.43</v>
-      </c>
-      <c r="C37" s="11">
-        <v>1523308.4413000003</v>
-      </c>
-      <c r="D37" s="11">
-        <v>44144141.988700002</v>
-      </c>
-      <c r="E37" s="11">
-        <v>1585825</v>
       </c>
     </row>
   </sheetData>
@@ -1826,89 +1479,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="105.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="31.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="29.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="29.125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="3" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1918,11 +1571,11 @@
       <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1963,7 +1616,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2004,7 +1657,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2045,7 +1698,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2086,7 +1739,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2127,7 +1780,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2168,7 +1821,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2209,7 +1862,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2250,7 +1903,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2291,7 +1944,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2332,7 +1985,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2373,7 +2026,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2414,7 +2067,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2455,7 +2108,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2496,7 +2149,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2537,7 +2190,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2578,7 +2231,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2619,7 +2272,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2660,7 +2313,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2701,7 +2354,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2742,7 +2395,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2783,7 +2436,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2824,7 +2477,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2865,7 +2518,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2906,7 +2559,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2947,7 +2600,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2988,7 +2641,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3029,7 +2682,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3070,7 +2723,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3111,7 +2764,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3152,7 +2805,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3193,7 +2846,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3234,7 +2887,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3275,7 +2928,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3316,7 +2969,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3357,7 +3010,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3398,7 +3051,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3439,7 +3092,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3480,7 +3133,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3521,7 +3174,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3562,7 +3215,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3603,7 +3256,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3644,7 +3297,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="12" t="s">
         <v>112</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3685,7 +3338,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="12" t="s">
         <v>112</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3726,7 +3379,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="12" t="s">
         <v>112</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3767,7 +3420,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3808,7 +3461,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3849,7 +3502,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -3890,7 +3543,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -3932,13 +3585,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="G1:K1"/>
@@ -3951,6 +3597,13 @@
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="L1:L3"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
